--- a/TablaA.xlsx
+++ b/TablaA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417842CB-7FBA-4D9E-9158-47129CEC3AB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B5AE55C-5CA0-4D01-9037-9C8187EB357A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,7 +100,7 @@
     <t>H,G</t>
   </si>
   <si>
-    <t>DURACION(TO)</t>
+    <t>VARIANZA</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -652,7 +652,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -672,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>16</v>
@@ -687,7 +687,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -892,7 +892,7 @@
       <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D14" s="3"/>
